--- a/仕様/パーツ／パージ.xlsx
+++ b/仕様/パーツ／パージ.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="パーツ" sheetId="2" r:id="rId1"/>
+    <sheet name="パージ" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,23 +19,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>■パージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■パーツ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■パーツの装備</t>
+    <rPh sb="5" eb="7">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +89,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,8 +115,425 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4557658" cy="800604"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="409575"/>
+          <a:ext cx="4557658" cy="800604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■パーツ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・敵が装備している武装</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>敵の部位</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・攻撃をし、耐久力を上回るダメージを与えることで敵から外せる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5426486" cy="1272784"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="3219450"/>
+          <a:ext cx="5426486" cy="1272784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■装備について</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・攻撃系部位（右腕</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>左腕</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>足）サポート系部位（胸部</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>背中）の２つに種類を分ける</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・サポート系部位パーツはパーツに近づくと、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" u="sng"/>
+            <a:t>自動で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>装備され強化されていく</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>サポート系部位には銃など装備できない</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・攻撃系部位パーツは装備する部位を指定できる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="2819400"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5475538" cy="1917192"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="381000"/>
+          <a:ext cx="5475538" cy="1917192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■パージ（通常）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ボタンを押すことで任意のタイミングでパージをする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　パーツ装備数が多いほどパージした際の攻撃範囲が広がる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>■パージ技（必殺技）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・部位（背中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>右腕</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>左腕</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>足）ごとに</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>MAX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>値まで装備しているときにできるパージ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・部位ごとのパージになる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・部位に装備されているパーツの耐久力を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>にするかわりに、強力な技を使用できる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +578,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +613,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +795,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A13:XFD13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/仕様/パーツ／パージ.xlsx
+++ b/仕様/パーツ／パージ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="パーツ" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>■パージ</t>
     <phoneticPr fontId="1"/>
@@ -34,6 +34,45 @@
     <rPh sb="5" eb="7">
       <t>ソウビ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■パーツ種類</t>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【汎用重火器】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【汎用ランチャー】</t>
+    <rPh sb="1" eb="3">
+      <t>ハンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【強化アーム】</t>
+    <rPh sb="1" eb="3">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【汎用装甲】</t>
+    <rPh sb="1" eb="3">
+      <t>ハンヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ジェットパック】</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -63,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,6 +112,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -89,13 +134,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -203,7 +251,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5426486" cy="1272784"/>
@@ -316,6 +364,733 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>・攻撃系部位パーツは装備する部位を指定できる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="2295525"/>
+          <a:ext cx="2314575" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NoImage</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3147015" cy="1036694"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2895600" y="2314575"/>
+          <a:ext cx="3147015" cy="1036694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・腕</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>足 装備可能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・射撃の強化</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・重火器を装備している敵から入手</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・パージ技は一定時間の連射（リロードなし）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="5391150"/>
+          <a:ext cx="2314575" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NoImage</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3711272" cy="1036694"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="5410200"/>
+          <a:ext cx="3711272" cy="1036694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・腕</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>足 装備可能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・射撃の強化</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ランチャーを装備している敵から入手</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・パージ技は一斉射撃（周辺の敵をロックオンしたい）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="8458200"/>
+          <a:ext cx="2314575" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NoImage</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5686172" cy="1036694"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="8477250"/>
+          <a:ext cx="5686172" cy="1036694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・腕 装備可能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・近接攻撃の強化</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・強化アームを装備している敵から入手</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・パージ技は連続格闘攻撃（大ぶりで重い感じ、腕を振って叩きつけているイメージ）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="11553825"/>
+          <a:ext cx="2314575" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NoImage</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2723823" cy="1036694"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="11572875"/>
+          <a:ext cx="2723823" cy="1036694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・腕</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>足</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>胸 装備可能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・防御力の強化</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・敵全般から入手（装備に関係しない）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・パージ技なし</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209550" y="14658975"/>
+          <a:ext cx="2314575" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NoImage</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4980851" cy="1036694"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2867025" y="14678025"/>
+          <a:ext cx="4980851" cy="1036694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・背中 装備可能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ジャンプの強化（ブーストジャンプが可能になる）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ジェットパックを装備している敵から入手可能（飛んでいる敵のパーツ）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・パージ技は一定時間無制限に飛ぶことが可能</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -795,28 +1570,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+    <row r="8" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A13:XFD13"/>
+    <mergeCell ref="A73:XFD73"/>
+    <mergeCell ref="A8:XFD8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -828,14 +1634,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>

--- a/仕様/パーツ／パージ.xlsx
+++ b/仕様/パーツ／パージ.xlsx
@@ -44,17 +44,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>【汎用重火器】</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【汎用ランチャー】</t>
-    <rPh sb="1" eb="3">
-      <t>ハンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>【強化アーム】</t>
     <rPh sb="1" eb="3">
       <t>キョウカ</t>
@@ -73,6 +62,17 @@
   </si>
   <si>
     <t>【ジェットパック】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【汎用重火器（マシンガン）】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【汎用ランチャー（ミサイル）】</t>
+    <rPh sb="1" eb="3">
+      <t>ハンヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -140,10 +140,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1572,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1583,34 +1583,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -1640,8 +1640,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
